--- a/AAII_Financials/Quarterly/LSYN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LSYN_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>LSYN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,118 +665,124 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E8" s="3">
         <v>6200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2700</v>
-      </c>
-      <c r="M8" s="3">
-        <v>2500</v>
       </c>
       <c r="N8" s="3">
         <v>2500</v>
       </c>
       <c r="O8" s="3">
+        <v>2500</v>
+      </c>
+      <c r="P8" s="3">
         <v>2400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -787,84 +793,90 @@
         <v>900</v>
       </c>
       <c r="F9" s="3">
+        <v>900</v>
+      </c>
+      <c r="G9" s="3">
         <v>800</v>
-      </c>
-      <c r="G9" s="3">
-        <v>1000</v>
       </c>
       <c r="H9" s="3">
         <v>1000</v>
       </c>
       <c r="I9" s="3">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="J9" s="3">
         <v>700</v>
       </c>
       <c r="K9" s="3">
+        <v>700</v>
+      </c>
+      <c r="L9" s="3">
         <v>100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E10" s="3">
         <v>5300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>5500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>4700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>4600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>4400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1100</v>
-      </c>
-      <c r="O10" s="3">
-        <v>1500</v>
       </c>
       <c r="P10" s="3">
         <v>1500</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +893,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +938,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +985,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1032,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1034,31 +1056,34 @@
         <v>700</v>
       </c>
       <c r="I15" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="J15" s="3">
         <v>800</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="3">
+        <v>800</v>
+      </c>
+      <c r="L15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
       <c r="M15" s="3">
         <v>0</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>8</v>
+      <c r="O15" s="3">
+        <v>0</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1097,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E17" s="3">
         <v>4200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="E18" s="3">
         <v>2000</v>
       </c>
       <c r="F18" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G18" s="3">
         <v>2700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-4500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,96 +1210,103 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="M20" s="3">
         <v>-200</v>
       </c>
       <c r="N20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O20" s="3">
         <v>-2100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E21" s="3">
         <v>1600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-4500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1292,75 +1331,81 @@
       <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="K22" s="3">
+        <v>100</v>
+      </c>
+      <c r="L22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>8</v>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="E23" s="3">
         <v>800</v>
       </c>
       <c r="F23" s="3">
+        <v>800</v>
+      </c>
+      <c r="G23" s="3">
         <v>1500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1372,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
@@ -1398,8 +1443,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1490,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>800</v>
+        <v>-400</v>
       </c>
       <c r="E26" s="3">
         <v>800</v>
       </c>
       <c r="F26" s="3">
+        <v>800</v>
+      </c>
+      <c r="G26" s="3">
         <v>1500</v>
       </c>
-      <c r="G26" s="3">
-        <v>1100</v>
-      </c>
       <c r="H26" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I26" s="3">
         <v>1300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>800</v>
+        <v>-400</v>
       </c>
       <c r="E27" s="3">
         <v>800</v>
       </c>
       <c r="F27" s="3">
+        <v>800</v>
+      </c>
+      <c r="G27" s="3">
         <v>1500</v>
       </c>
-      <c r="G27" s="3">
-        <v>1100</v>
-      </c>
       <c r="H27" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I27" s="3">
         <v>1300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1772,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E32" s="3">
         <v>1100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M32" s="3">
         <v>200</v>
       </c>
       <c r="N32" s="3">
+        <v>200</v>
+      </c>
+      <c r="O32" s="3">
         <v>2100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>800</v>
+        <v>-400</v>
       </c>
       <c r="E33" s="3">
         <v>800</v>
       </c>
       <c r="F33" s="3">
+        <v>800</v>
+      </c>
+      <c r="G33" s="3">
         <v>1500</v>
       </c>
-      <c r="G33" s="3">
-        <v>1100</v>
-      </c>
       <c r="H33" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I33" s="3">
         <v>1300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1913,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>800</v>
+        <v>-400</v>
       </c>
       <c r="E35" s="3">
         <v>800</v>
       </c>
       <c r="F35" s="3">
+        <v>800</v>
+      </c>
+      <c r="G35" s="3">
         <v>1500</v>
       </c>
-      <c r="G35" s="3">
-        <v>1100</v>
-      </c>
       <c r="H35" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I35" s="3">
         <v>1300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2052,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E41" s="3">
         <v>15700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>14200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>12500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>11100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>9400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>8200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>6600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,8 +2144,11 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2067,40 +2159,43 @@
         <v>500</v>
       </c>
       <c r="F43" s="3">
+        <v>500</v>
+      </c>
+      <c r="G43" s="3">
         <v>400</v>
-      </c>
-      <c r="G43" s="3">
-        <v>500</v>
       </c>
       <c r="H43" s="3">
         <v>500</v>
       </c>
       <c r="I43" s="3">
+        <v>500</v>
+      </c>
+      <c r="J43" s="3">
         <v>400</v>
-      </c>
-      <c r="J43" s="3">
-        <v>700</v>
       </c>
       <c r="K43" s="3">
         <v>700</v>
       </c>
       <c r="L43" s="3">
+        <v>700</v>
+      </c>
+      <c r="M43" s="3">
         <v>600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,96 +2238,105 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>600</v>
+      </c>
+      <c r="E45" s="3">
         <v>700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>17800</v>
+      </c>
+      <c r="E46" s="3">
         <v>16900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>15300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>13500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>12000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>10300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>9000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>7500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>8000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>7100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2257,17 +2361,17 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3" t="s">
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
-      </c>
       <c r="M47" s="3">
         <v>0</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>8</v>
+      <c r="N47" s="3">
+        <v>0</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>8</v>
@@ -2275,41 +2379,44 @@
       <c r="P47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E48" s="3">
         <v>2800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>100</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
-      </c>
       <c r="N48" s="3">
         <v>0</v>
       </c>
@@ -2319,37 +2426,40 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>22300</v>
+      </c>
+      <c r="E49" s="3">
         <v>22800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>23200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>23700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>24200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>24600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>25100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>25600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>26000</v>
-      </c>
-      <c r="L49" s="3">
-        <v>11500</v>
       </c>
       <c r="M49" s="3">
         <v>11500</v>
@@ -2363,8 +2473,11 @@
       <c r="P49" s="3">
         <v>11500</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>11500</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,13 +2567,16 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>300</v>
+        <v>2200</v>
       </c>
       <c r="E52" s="3">
         <v>300</v>
@@ -2466,37 +2585,40 @@
         <v>300</v>
       </c>
       <c r="G52" s="3">
+        <v>300</v>
+      </c>
+      <c r="H52" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I52" s="3">
         <v>200</v>
-      </c>
-      <c r="H52" s="3">
-        <v>200</v>
-      </c>
-      <c r="I52" s="3">
-        <v>100</v>
       </c>
       <c r="J52" s="3">
         <v>100</v>
       </c>
       <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="L52" s="3">
+        <v>0</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O52" s="3">
         <v>300</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2661,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>44600</v>
+      </c>
+      <c r="E54" s="3">
         <v>42900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>41900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>40800</v>
       </c>
-      <c r="G54" s="3">
-        <v>38600</v>
-      </c>
       <c r="H54" s="3">
+        <v>40100</v>
+      </c>
+      <c r="I54" s="3">
         <v>37500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>36700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>35900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>35100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>19600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>18700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>17900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>16800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>15800</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,57 +2748,61 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>800</v>
+      </c>
+      <c r="E57" s="3">
         <v>1100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>500</v>
-      </c>
-      <c r="K57" s="3">
-        <v>400</v>
       </c>
       <c r="L57" s="3">
         <v>400</v>
       </c>
       <c r="M57" s="3">
+        <v>400</v>
+      </c>
+      <c r="N57" s="3">
         <v>700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="E58" s="3">
         <v>2700</v>
@@ -2684,7 +2817,7 @@
         <v>2700</v>
       </c>
       <c r="I58" s="3">
-        <v>1600</v>
+        <v>2700</v>
       </c>
       <c r="J58" s="3">
         <v>1600</v>
@@ -2692,8 +2825,8 @@
       <c r="K58" s="3">
         <v>1600</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>8</v>
+      <c r="L58" s="3">
+        <v>1600</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>8</v>
@@ -2707,126 +2840,135 @@
       <c r="P58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E59" s="3">
         <v>4000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3200</v>
       </c>
-      <c r="G59" s="3">
-        <v>2700</v>
-      </c>
       <c r="H59" s="3">
-        <v>2600</v>
+        <v>3500</v>
       </c>
       <c r="I59" s="3">
         <v>2600</v>
       </c>
       <c r="J59" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K59" s="3">
         <v>2200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>200</v>
-      </c>
-      <c r="M59" s="3">
-        <v>100</v>
       </c>
       <c r="N59" s="3">
         <v>100</v>
       </c>
       <c r="O59" s="3">
+        <v>100</v>
+      </c>
+      <c r="P59" s="3">
         <v>400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E60" s="3">
         <v>7800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>7200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6500</v>
       </c>
-      <c r="G60" s="3">
-        <v>6100</v>
-      </c>
       <c r="H60" s="3">
+        <v>7000</v>
+      </c>
+      <c r="I60" s="3">
         <v>5800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E61" s="3">
         <v>4500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>6100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>7600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>8000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8400</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -2839,25 +2981,28 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="E62" s="3">
         <v>1100</v>
       </c>
       <c r="F62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G62" s="3">
         <v>1200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>400</v>
-      </c>
-      <c r="H62" s="3">
-        <v>300</v>
       </c>
       <c r="I62" s="3">
         <v>300</v>
@@ -2866,10 +3011,10 @@
         <v>300</v>
       </c>
       <c r="K62" s="3">
+        <v>300</v>
+      </c>
+      <c r="L62" s="3">
         <v>100</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>8</v>
@@ -2883,8 +3028,11 @@
       <c r="P62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,28 +3169,31 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E66" s="3">
         <v>13400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>13300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>13000</v>
       </c>
-      <c r="G66" s="3">
-        <v>12200</v>
-      </c>
       <c r="H66" s="3">
+        <v>13000</v>
+      </c>
+      <c r="I66" s="3">
         <v>12100</v>
-      </c>
-      <c r="I66" s="3">
-        <v>12600</v>
       </c>
       <c r="J66" s="3">
         <v>12600</v>
@@ -3045,22 +3202,25 @@
         <v>12600</v>
       </c>
       <c r="L66" s="3">
+        <v>12600</v>
+      </c>
+      <c r="M66" s="3">
         <v>600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3423,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-5400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-6200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-7100</v>
       </c>
-      <c r="G72" s="3">
-        <v>-8600</v>
-      </c>
       <c r="H72" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="I72" s="3">
         <v>-9700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-11000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-11900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-12400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-7800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-9000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-9700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-9200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-9900</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3611,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>30100</v>
+      </c>
+      <c r="E76" s="3">
         <v>29500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>28700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>27800</v>
       </c>
-      <c r="G76" s="3">
-        <v>26400</v>
-      </c>
       <c r="H76" s="3">
+        <v>27000</v>
+      </c>
+      <c r="I76" s="3">
         <v>25400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>24100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>23300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>22400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>19000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>17800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>17200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>15900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>15200</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3705,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>800</v>
+        <v>-400</v>
       </c>
       <c r="E81" s="3">
         <v>800</v>
       </c>
       <c r="F81" s="3">
+        <v>800</v>
+      </c>
+      <c r="G81" s="3">
         <v>1500</v>
       </c>
-      <c r="G81" s="3">
-        <v>1100</v>
-      </c>
       <c r="H81" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I81" s="3">
         <v>1300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3825,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3649,13 +3847,13 @@
         <v>700</v>
       </c>
       <c r="I83" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="J83" s="3">
         <v>800</v>
       </c>
       <c r="K83" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -3672,8 +3870,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4105,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E89" s="3">
         <v>2000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4173,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3963,10 +4183,10 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-200</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-100</v>
       </c>
       <c r="G91" s="3">
         <v>-100</v>
@@ -3974,17 +4194,17 @@
       <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>8</v>
+      <c r="I91" s="3">
+        <v>-100</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3" t="s">
+      <c r="K91" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>8</v>
@@ -3992,14 +4212,17 @@
       <c r="N91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4312,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4095,10 +4324,10 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-200</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-100</v>
       </c>
       <c r="G94" s="3">
         <v>-100</v>
@@ -4107,20 +4336,20 @@
         <v>-100</v>
       </c>
       <c r="I94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-13100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
@@ -4130,8 +4359,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4566,11 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4339,10 +4584,10 @@
         <v>-400</v>
       </c>
       <c r="G100" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H100" s="3">
         <v>-500</v>
-      </c>
-      <c r="H100" s="3">
-        <v>-400</v>
       </c>
       <c r="I100" s="3">
         <v>-400</v>
@@ -4351,11 +4596,11 @@
         <v>-400</v>
       </c>
       <c r="K100" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L100" s="3">
         <v>9900</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
@@ -4366,10 +4611,13 @@
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4660,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>900</v>
+      </c>
+      <c r="E102" s="3">
         <v>1500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LSYN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LSYN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>LSYN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,129 +665,136 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E8" s="3">
         <v>6000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>6300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2700</v>
-      </c>
-      <c r="N8" s="3">
-        <v>2500</v>
       </c>
       <c r="O8" s="3">
         <v>2500</v>
       </c>
       <c r="P8" s="3">
+        <v>2500</v>
+      </c>
+      <c r="Q8" s="3">
         <v>2400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="E9" s="3">
         <v>900</v>
@@ -796,87 +803,93 @@
         <v>900</v>
       </c>
       <c r="G9" s="3">
+        <v>900</v>
+      </c>
+      <c r="H9" s="3">
         <v>800</v>
-      </c>
-      <c r="H9" s="3">
-        <v>1000</v>
       </c>
       <c r="I9" s="3">
         <v>1000</v>
       </c>
       <c r="J9" s="3">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K9" s="3">
         <v>700</v>
       </c>
       <c r="L9" s="3">
+        <v>700</v>
+      </c>
+      <c r="M9" s="3">
         <v>100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E10" s="3">
         <v>5100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>5300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>5500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>4900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>4700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>4600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1100</v>
-      </c>
-      <c r="P10" s="3">
-        <v>1500</v>
       </c>
       <c r="Q10" s="3">
         <v>1500</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -941,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,8 +1005,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1035,13 +1055,16 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="E15" s="3">
         <v>700</v>
@@ -1059,31 +1082,34 @@
         <v>700</v>
       </c>
       <c r="J15" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K15" s="3">
         <v>800</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="L15" s="3">
+        <v>800</v>
+      </c>
+      <c r="M15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
       <c r="N15" s="3">
         <v>0</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>8</v>
+      <c r="P15" s="3">
+        <v>0</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E17" s="3">
         <v>4300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E18" s="3">
         <v>1700</v>
-      </c>
-      <c r="E18" s="3">
-        <v>2000</v>
       </c>
       <c r="F18" s="3">
         <v>2000</v>
       </c>
       <c r="G18" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H18" s="3">
         <v>2700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-4500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,102 +1244,109 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="N20" s="3">
         <v>-200</v>
       </c>
       <c r="O20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P20" s="3">
         <v>-2100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-4500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1334,82 +1374,88 @@
       <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="L22" s="3">
+        <v>100</v>
+      </c>
+      <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>8</v>
+      <c r="P22" s="3">
+        <v>0</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E23" s="3">
         <v>400</v>
-      </c>
-      <c r="E23" s="3">
-        <v>800</v>
       </c>
       <c r="F23" s="3">
         <v>800</v>
       </c>
       <c r="G23" s="3">
+        <v>800</v>
+      </c>
+      <c r="H23" s="3">
         <v>1500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>300</v>
+      </c>
+      <c r="E24" s="3">
         <v>800</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
@@ -1417,11 +1463,11 @@
         <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>300</v>
+      </c>
+      <c r="I24" s="3">
         <v>-600</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
@@ -1446,8 +1492,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-400</v>
-      </c>
-      <c r="E26" s="3">
-        <v>800</v>
       </c>
       <c r="F26" s="3">
         <v>800</v>
       </c>
       <c r="G26" s="3">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="H26" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I26" s="3">
         <v>1700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-400</v>
-      </c>
-      <c r="E27" s="3">
-        <v>800</v>
       </c>
       <c r="F27" s="3">
         <v>800</v>
       </c>
       <c r="G27" s="3">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="H27" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I27" s="3">
         <v>1700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,102 +1842,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E32" s="3">
         <v>1200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N32" s="3">
         <v>200</v>
       </c>
       <c r="O32" s="3">
+        <v>200</v>
+      </c>
+      <c r="P32" s="3">
         <v>2100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-400</v>
-      </c>
-      <c r="E33" s="3">
-        <v>800</v>
       </c>
       <c r="F33" s="3">
         <v>800</v>
       </c>
       <c r="G33" s="3">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="H33" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I33" s="3">
         <v>1700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-400</v>
-      </c>
-      <c r="E35" s="3">
-        <v>800</v>
       </c>
       <c r="F35" s="3">
         <v>800</v>
       </c>
       <c r="G35" s="3">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="H35" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I35" s="3">
         <v>1700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,55 +2139,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>17900</v>
+      </c>
+      <c r="E41" s="3">
         <v>16600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>15700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>14200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>12500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>11100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>9400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>8200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>7400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,8 +2237,11 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2162,40 +2255,43 @@
         <v>500</v>
       </c>
       <c r="G43" s="3">
+        <v>500</v>
+      </c>
+      <c r="H43" s="3">
         <v>400</v>
-      </c>
-      <c r="H43" s="3">
-        <v>500</v>
       </c>
       <c r="I43" s="3">
         <v>500</v>
       </c>
       <c r="J43" s="3">
+        <v>500</v>
+      </c>
+      <c r="K43" s="3">
         <v>400</v>
-      </c>
-      <c r="K43" s="3">
-        <v>700</v>
       </c>
       <c r="L43" s="3">
         <v>700</v>
       </c>
       <c r="M43" s="3">
+        <v>700</v>
+      </c>
+      <c r="N43" s="3">
         <v>600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2241,102 +2337,111 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>700</v>
+      </c>
+      <c r="E45" s="3">
         <v>600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>200</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O45" s="3">
         <v>100</v>
       </c>
       <c r="P45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E46" s="3">
         <v>17800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>16900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>15300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>13500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>12000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>10300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>9000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>7500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>8000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>7100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2364,17 +2469,17 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-      <c r="L47" s="3" t="s">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
-      </c>
       <c r="N47" s="3">
         <v>0</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>8</v>
+      <c r="O47" s="3">
+        <v>0</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>8</v>
@@ -2382,44 +2487,47 @@
       <c r="Q47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E48" s="3">
         <v>2300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>100</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
-      </c>
       <c r="O48" s="3">
         <v>0</v>
       </c>
@@ -2429,40 +2537,43 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E49" s="3">
         <v>22300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>22800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>23200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>23700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>24200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>24600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>25100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>25600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>26000</v>
-      </c>
-      <c r="M49" s="3">
-        <v>11500</v>
       </c>
       <c r="N49" s="3">
         <v>11500</v>
@@ -2476,8 +2587,11 @@
       <c r="Q49" s="3">
         <v>11500</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>11500</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,16 +2687,19 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E52" s="3">
         <v>2200</v>
-      </c>
-      <c r="E52" s="3">
-        <v>300</v>
       </c>
       <c r="F52" s="3">
         <v>300</v>
@@ -2588,37 +2708,40 @@
         <v>300</v>
       </c>
       <c r="H52" s="3">
+        <v>300</v>
+      </c>
+      <c r="I52" s="3">
         <v>1600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>200</v>
-      </c>
-      <c r="J52" s="3">
-        <v>100</v>
       </c>
       <c r="K52" s="3">
         <v>100</v>
       </c>
       <c r="L52" s="3">
-        <v>0</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O52" s="3">
+      <c r="O52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P52" s="3">
         <v>300</v>
-      </c>
-      <c r="P52" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2787,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>45600</v>
+      </c>
+      <c r="E54" s="3">
         <v>44600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>42900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>41900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>40800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>40100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>37500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>36700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>35900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>35100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>19600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>18700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>17900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>16800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>15800</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,55 +2879,59 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E57" s="3">
         <v>800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>500</v>
-      </c>
-      <c r="L57" s="3">
-        <v>400</v>
       </c>
       <c r="M57" s="3">
         <v>400</v>
       </c>
       <c r="N57" s="3">
+        <v>400</v>
+      </c>
+      <c r="O57" s="3">
         <v>700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2805,7 +2939,7 @@
         <v>2600</v>
       </c>
       <c r="E58" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="F58" s="3">
         <v>2700</v>
@@ -2820,7 +2954,7 @@
         <v>2700</v>
       </c>
       <c r="J58" s="3">
-        <v>1600</v>
+        <v>2700</v>
       </c>
       <c r="K58" s="3">
         <v>1600</v>
@@ -2828,8 +2962,8 @@
       <c r="L58" s="3">
         <v>1600</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>8</v>
+      <c r="M58" s="3">
+        <v>1600</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>8</v>
@@ -2843,135 +2977,144 @@
       <c r="Q58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E59" s="3">
         <v>6100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3500</v>
-      </c>
-      <c r="I59" s="3">
-        <v>2600</v>
       </c>
       <c r="J59" s="3">
         <v>2600</v>
       </c>
       <c r="K59" s="3">
+        <v>2600</v>
+      </c>
+      <c r="L59" s="3">
         <v>2200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>200</v>
-      </c>
-      <c r="N59" s="3">
-        <v>100</v>
       </c>
       <c r="O59" s="3">
         <v>100</v>
       </c>
       <c r="P59" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q59" s="3">
         <v>400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E60" s="3">
         <v>9500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>7800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>7000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E61" s="3">
         <v>4100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>6100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>7600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>8400</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -2984,8 +3127,11 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2993,19 +3139,19 @@
         <v>900</v>
       </c>
       <c r="E62" s="3">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="F62" s="3">
         <v>1100</v>
       </c>
       <c r="G62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H62" s="3">
         <v>1200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>400</v>
-      </c>
-      <c r="I62" s="3">
-        <v>300</v>
       </c>
       <c r="J62" s="3">
         <v>300</v>
@@ -3014,10 +3160,10 @@
         <v>300</v>
       </c>
       <c r="L62" s="3">
+        <v>300</v>
+      </c>
+      <c r="M62" s="3">
         <v>100</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>8</v>
@@ -3031,8 +3177,11 @@
       <c r="Q62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,31 +3327,34 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E66" s="3">
         <v>14500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>13400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>13300</v>
-      </c>
-      <c r="G66" s="3">
-        <v>13000</v>
       </c>
       <c r="H66" s="3">
         <v>13000</v>
       </c>
       <c r="I66" s="3">
+        <v>13000</v>
+      </c>
+      <c r="J66" s="3">
         <v>12100</v>
-      </c>
-      <c r="J66" s="3">
-        <v>12600</v>
       </c>
       <c r="K66" s="3">
         <v>12600</v>
@@ -3205,22 +3363,25 @@
         <v>12600</v>
       </c>
       <c r="M66" s="3">
+        <v>12600</v>
+      </c>
+      <c r="N66" s="3">
         <v>600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-5200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-5400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-6200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-7100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-8000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-9700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-11000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-11900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-12400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-7800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-9000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-9700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-9200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-9900</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>31300</v>
+      </c>
+      <c r="E76" s="3">
         <v>30100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>29500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>28700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>27800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>27000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>25400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>24100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>23300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>22400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>19000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>17800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>17200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>15900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>15200</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-400</v>
-      </c>
-      <c r="E81" s="3">
-        <v>800</v>
       </c>
       <c r="F81" s="3">
         <v>800</v>
       </c>
       <c r="G81" s="3">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="H81" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I81" s="3">
         <v>1700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,13 +4024,14 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="E83" s="3">
         <v>700</v>
@@ -3850,13 +4049,13 @@
         <v>700</v>
       </c>
       <c r="J83" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K83" s="3">
         <v>800</v>
       </c>
       <c r="L83" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -3873,8 +4072,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E89" s="3">
         <v>1300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,22 +4394,23 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-200</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-100</v>
       </c>
       <c r="H91" s="3">
         <v>-100</v>
@@ -4197,17 +4418,17 @@
       <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>8</v>
+      <c r="J91" s="3">
+        <v>-100</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3" t="s">
+      <c r="L91" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>8</v>
@@ -4215,14 +4436,17 @@
       <c r="O91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,22 +4542,25 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-200</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-100</v>
       </c>
       <c r="H94" s="3">
         <v>-100</v>
@@ -4339,20 +4569,20 @@
         <v>-100</v>
       </c>
       <c r="J94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-13100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
@@ -4362,8 +4592,11 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,8 +4812,11 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4587,10 +4833,10 @@
         <v>-400</v>
       </c>
       <c r="H100" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I100" s="3">
         <v>-500</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-400</v>
       </c>
       <c r="J100" s="3">
         <v>-400</v>
@@ -4599,11 +4845,11 @@
         <v>-400</v>
       </c>
       <c r="L100" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M100" s="3">
         <v>9900</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
@@ -4614,10 +4860,13 @@
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,51 +4912,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E102" s="3">
         <v>900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LSYN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LSYN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>LSYN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,257 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E8" s="3">
         <v>6300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
+        <v>6300</v>
+      </c>
+      <c r="G8" s="3">
         <v>6000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>6200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>5700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>6300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>5900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>5700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>5300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>5100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>2900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>2700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>2500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>2500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>2400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>900</v>
+      </c>
+      <c r="E9" s="3">
+        <v>600</v>
+      </c>
+      <c r="F9" s="3">
         <v>800</v>
-      </c>
-      <c r="E9" s="3">
-        <v>900</v>
-      </c>
-      <c r="F9" s="3">
-        <v>900</v>
       </c>
       <c r="G9" s="3">
         <v>900</v>
       </c>
       <c r="H9" s="3">
+        <v>900</v>
+      </c>
+      <c r="I9" s="3">
+        <v>900</v>
+      </c>
+      <c r="J9" s="3">
         <v>800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>1000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>100</v>
-      </c>
-      <c r="N9" s="3">
-        <v>1400</v>
-      </c>
-      <c r="O9" s="3">
-        <v>1300</v>
       </c>
       <c r="P9" s="3">
         <v>1400</v>
       </c>
       <c r="Q9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R9" s="3">
+        <v>1400</v>
+      </c>
+      <c r="S9" s="3">
         <v>900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E10" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F10" s="3">
         <v>5500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>5100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>5300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>4800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>5500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>4900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>4700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>4600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>4400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>2800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>1300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>1200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>1100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>1500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +934,10 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +986,14 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1042,14 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,19 +1098,25 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>400</v>
+      </c>
+      <c r="E15" s="3">
         <v>500</v>
       </c>
-      <c r="E15" s="3">
-        <v>700</v>
-      </c>
       <c r="F15" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="G15" s="3">
         <v>700</v>
@@ -1085,31 +1131,37 @@
         <v>700</v>
       </c>
       <c r="K15" s="3">
+        <v>700</v>
+      </c>
+      <c r="L15" s="3">
+        <v>700</v>
+      </c>
+      <c r="M15" s="3">
         <v>800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>800</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="O15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
       <c r="P15" s="3">
         <v>0</v>
       </c>
-      <c r="Q15" s="3" t="s">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R15" s="3" t="s">
+      <c r="T15" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1177,122 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3500</v>
+        <v>7900</v>
       </c>
       <c r="E17" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="F17" s="3">
-        <v>4200</v>
+        <v>4800</v>
       </c>
       <c r="G17" s="3">
-        <v>3700</v>
+        <v>5600</v>
       </c>
       <c r="H17" s="3">
-        <v>3600</v>
+        <v>5400</v>
       </c>
       <c r="I17" s="3">
+        <v>4800</v>
+      </c>
+      <c r="J17" s="3">
+        <v>4700</v>
+      </c>
+      <c r="K17" s="3">
         <v>3400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>3300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>3200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>3400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>7400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2800</v>
+        <v>-1400</v>
       </c>
       <c r="E18" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G18" s="3">
+        <v>400</v>
+      </c>
+      <c r="H18" s="3">
+        <v>800</v>
+      </c>
+      <c r="I18" s="3">
+        <v>900</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K18" s="3">
+        <v>2500</v>
+      </c>
+      <c r="L18" s="3">
+        <v>2400</v>
+      </c>
+      <c r="M18" s="3">
+        <v>2100</v>
+      </c>
+      <c r="N18" s="3">
         <v>1700</v>
       </c>
-      <c r="F18" s="3">
-        <v>2000</v>
-      </c>
-      <c r="G18" s="3">
-        <v>2000</v>
-      </c>
-      <c r="H18" s="3">
-        <v>2700</v>
-      </c>
-      <c r="I18" s="3">
-        <v>2500</v>
-      </c>
-      <c r="J18" s="3">
-        <v>2400</v>
-      </c>
-      <c r="K18" s="3">
-        <v>2100</v>
-      </c>
-      <c r="L18" s="3">
-        <v>1700</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-4500</v>
-      </c>
-      <c r="N18" s="3">
-        <v>1300</v>
-      </c>
-      <c r="O18" s="3">
-        <v>1200</v>
       </c>
       <c r="P18" s="3">
         <v>1300</v>
       </c>
       <c r="Q18" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R18" s="3">
+        <v>1300</v>
+      </c>
+      <c r="S18" s="3">
         <v>700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,116 +1311,130 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>200</v>
+      </c>
+      <c r="E20" s="3">
+        <v>100</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>100</v>
+      </c>
+      <c r="H20" s="3">
+        <v>100</v>
+      </c>
+      <c r="I20" s="3">
+        <v>100</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1300</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-1200</v>
       </c>
       <c r="L20" s="3">
         <v>-1100</v>
       </c>
       <c r="M20" s="3">
-        <v>0</v>
+        <v>-1200</v>
       </c>
       <c r="N20" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F21" s="3">
         <v>2000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>1200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>1600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>1700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>2400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>2000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>2100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>1700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>1400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-4500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>1200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>1000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F22" s="3">
         <v>100</v>
@@ -1377,103 +1457,115 @@
       <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="M22" s="3" t="s">
+      <c r="M22" s="3">
+        <v>100</v>
+      </c>
+      <c r="N22" s="3">
+        <v>100</v>
+      </c>
+      <c r="O22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3" t="s">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R22" s="3" t="s">
+      <c r="T22" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F23" s="3">
         <v>1400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>1500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>1100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>1300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-4600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>1200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>1000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>700</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F24" s="3">
         <v>300</v>
       </c>
-      <c r="E24" s="3">
-        <v>800</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H24" s="3">
+        <v>200</v>
+      </c>
+      <c r="I24" s="3">
+        <v>200</v>
+      </c>
+      <c r="J24" s="3">
         <v>300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-600</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
@@ -1495,8 +1587,14 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1643,126 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>300</v>
+      </c>
+      <c r="F26" s="3">
         <v>1100</v>
       </c>
-      <c r="E26" s="3">
-        <v>-400</v>
-      </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
+        <v>300</v>
+      </c>
+      <c r="H26" s="3">
+        <v>600</v>
+      </c>
+      <c r="I26" s="3">
+        <v>700</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K26" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L26" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M26" s="3">
         <v>800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="N26" s="3">
+        <v>500</v>
+      </c>
+      <c r="O26" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="P26" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="S26" s="3">
+        <v>700</v>
+      </c>
+      <c r="T26" s="3">
         <v>800</v>
       </c>
-      <c r="H26" s="3">
-        <v>1200</v>
-      </c>
-      <c r="I26" s="3">
-        <v>1700</v>
-      </c>
-      <c r="J26" s="3">
-        <v>1300</v>
-      </c>
-      <c r="K26" s="3">
-        <v>800</v>
-      </c>
-      <c r="L26" s="3">
-        <v>500</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-4600</v>
-      </c>
-      <c r="N26" s="3">
-        <v>1200</v>
-      </c>
-      <c r="O26" s="3">
-        <v>1000</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-800</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>700</v>
-      </c>
-      <c r="R26" s="3">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>300</v>
+      </c>
+      <c r="F27" s="3">
         <v>1100</v>
       </c>
-      <c r="E27" s="3">
-        <v>-400</v>
-      </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
+        <v>300</v>
+      </c>
+      <c r="H27" s="3">
+        <v>600</v>
+      </c>
+      <c r="I27" s="3">
+        <v>700</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K27" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L27" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M27" s="3">
         <v>800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="N27" s="3">
+        <v>500</v>
+      </c>
+      <c r="O27" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="P27" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="S27" s="3">
+        <v>700</v>
+      </c>
+      <c r="T27" s="3">
         <v>800</v>
       </c>
-      <c r="H27" s="3">
-        <v>1200</v>
-      </c>
-      <c r="I27" s="3">
-        <v>1700</v>
-      </c>
-      <c r="J27" s="3">
-        <v>1300</v>
-      </c>
-      <c r="K27" s="3">
-        <v>800</v>
-      </c>
-      <c r="L27" s="3">
-        <v>500</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-4600</v>
-      </c>
-      <c r="N27" s="3">
-        <v>1200</v>
-      </c>
-      <c r="O27" s="3">
-        <v>1000</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-800</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>700</v>
-      </c>
-      <c r="R27" s="3">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1811,14 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1867,14 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1923,14 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1979,126 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>1300</v>
-      </c>
-      <c r="E32" s="3">
-        <v>1200</v>
-      </c>
-      <c r="F32" s="3">
-        <v>1100</v>
-      </c>
-      <c r="G32" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H32" s="3">
-        <v>1100</v>
-      </c>
-      <c r="I32" s="3">
-        <v>1300</v>
-      </c>
-      <c r="J32" s="3">
-        <v>1100</v>
-      </c>
-      <c r="K32" s="3">
-        <v>1200</v>
       </c>
       <c r="L32" s="3">
         <v>1100</v>
       </c>
       <c r="M32" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="N32" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>2100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>300</v>
+      </c>
+      <c r="F33" s="3">
         <v>1100</v>
       </c>
-      <c r="E33" s="3">
-        <v>-400</v>
-      </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
+        <v>300</v>
+      </c>
+      <c r="H33" s="3">
+        <v>600</v>
+      </c>
+      <c r="I33" s="3">
+        <v>700</v>
+      </c>
+      <c r="J33" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K33" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L33" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M33" s="3">
         <v>800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="N33" s="3">
+        <v>500</v>
+      </c>
+      <c r="O33" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="P33" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="S33" s="3">
+        <v>700</v>
+      </c>
+      <c r="T33" s="3">
         <v>800</v>
       </c>
-      <c r="H33" s="3">
-        <v>1200</v>
-      </c>
-      <c r="I33" s="3">
-        <v>1700</v>
-      </c>
-      <c r="J33" s="3">
-        <v>1300</v>
-      </c>
-      <c r="K33" s="3">
-        <v>800</v>
-      </c>
-      <c r="L33" s="3">
-        <v>500</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-4600</v>
-      </c>
-      <c r="N33" s="3">
-        <v>1200</v>
-      </c>
-      <c r="O33" s="3">
-        <v>1000</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-800</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>700</v>
-      </c>
-      <c r="R33" s="3">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2147,131 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>300</v>
+      </c>
+      <c r="F35" s="3">
         <v>1100</v>
       </c>
-      <c r="E35" s="3">
-        <v>-400</v>
-      </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
+        <v>300</v>
+      </c>
+      <c r="H35" s="3">
+        <v>600</v>
+      </c>
+      <c r="I35" s="3">
+        <v>700</v>
+      </c>
+      <c r="J35" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K35" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L35" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M35" s="3">
         <v>800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="N35" s="3">
+        <v>500</v>
+      </c>
+      <c r="O35" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="P35" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="S35" s="3">
+        <v>700</v>
+      </c>
+      <c r="T35" s="3">
         <v>800</v>
       </c>
-      <c r="H35" s="3">
-        <v>1200</v>
-      </c>
-      <c r="I35" s="3">
-        <v>1700</v>
-      </c>
-      <c r="J35" s="3">
-        <v>1300</v>
-      </c>
-      <c r="K35" s="3">
-        <v>800</v>
-      </c>
-      <c r="L35" s="3">
-        <v>500</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-4600</v>
-      </c>
-      <c r="N35" s="3">
-        <v>1200</v>
-      </c>
-      <c r="O35" s="3">
-        <v>1000</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-800</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>700</v>
-      </c>
-      <c r="R35" s="3">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2290,10 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2312,66 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>19400</v>
+      </c>
+      <c r="F41" s="3">
         <v>17900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>16600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>15700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>14200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>12500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>11100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>9400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>8200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>6600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>5200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>7400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>6200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>5300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>4900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,16 +2420,22 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="E43" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F43" s="3">
         <v>500</v>
@@ -2258,40 +2444,46 @@
         <v>500</v>
       </c>
       <c r="H43" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="I43" s="3">
         <v>500</v>
       </c>
       <c r="J43" s="3">
+        <v>400</v>
+      </c>
+      <c r="K43" s="3">
         <v>500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
+        <v>500</v>
+      </c>
+      <c r="M43" s="3">
         <v>400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>700</v>
-      </c>
-      <c r="N43" s="3">
-        <v>600</v>
-      </c>
-      <c r="O43" s="3">
-        <v>900</v>
       </c>
       <c r="P43" s="3">
         <v>600</v>
       </c>
       <c r="Q43" s="3">
+        <v>900</v>
+      </c>
+      <c r="R43" s="3">
+        <v>600</v>
+      </c>
+      <c r="S43" s="3">
         <v>400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,16 +2532,22 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E45" s="3">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="F45" s="3">
         <v>700</v>
@@ -2358,10 +2556,10 @@
         <v>600</v>
       </c>
       <c r="H45" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="I45" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="J45" s="3">
         <v>500</v>
@@ -2370,78 +2568,90 @@
         <v>400</v>
       </c>
       <c r="L45" s="3">
+        <v>500</v>
+      </c>
+      <c r="M45" s="3">
+        <v>400</v>
+      </c>
+      <c r="N45" s="3">
         <v>300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>200</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
         <v>100</v>
-      </c>
-      <c r="P45" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>0</v>
       </c>
       <c r="R45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>21000</v>
+      </c>
+      <c r="F46" s="3">
         <v>19100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>17800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>16900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>15300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>13500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>12000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>10300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>9000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>7500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>6100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>8000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>7100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>6100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>5300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2472,114 +2682,126 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-      <c r="M47" s="3" t="s">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
-      </c>
-      <c r="O47" s="3">
-        <v>0</v>
-      </c>
-      <c r="P47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q47" s="3" t="s">
-        <v>8</v>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
       </c>
       <c r="R47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F48" s="3">
         <v>2100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>2300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>2800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>3100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>3400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>2200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>2600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>2700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>3000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>100</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
-      </c>
-      <c r="P48" s="3">
-        <v>0</v>
-      </c>
       <c r="Q48" s="3">
         <v>0</v>
       </c>
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E49" s="3">
+        <v>21700</v>
+      </c>
+      <c r="F49" s="3">
         <v>22000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>22300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>22800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>23200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>23700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>24200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>24600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>25100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>25600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>26000</v>
-      </c>
-      <c r="N49" s="3">
-        <v>11500</v>
-      </c>
-      <c r="O49" s="3">
-        <v>11500</v>
       </c>
       <c r="P49" s="3">
         <v>11500</v>
@@ -2590,8 +2812,14 @@
       <c r="R49" s="3">
         <v>11500</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>11500</v>
+      </c>
+      <c r="T49" s="3">
+        <v>11500</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2868,14 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2924,70 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E52" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F52" s="3">
         <v>2400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>2200</v>
       </c>
-      <c r="F52" s="3">
-        <v>300</v>
-      </c>
-      <c r="G52" s="3">
-        <v>300</v>
-      </c>
       <c r="H52" s="3">
-        <v>300</v>
+        <v>2100</v>
       </c>
       <c r="I52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K52" s="3">
         <v>1600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>100</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
-      </c>
-      <c r="N52" s="3" t="s">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P52" s="3">
-        <v>300</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R52" s="3" t="s">
+      <c r="R52" s="3">
+        <v>300</v>
+      </c>
+      <c r="S52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +3036,70 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>40300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>47000</v>
+      </c>
+      <c r="F54" s="3">
         <v>45600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>44600</v>
       </c>
-      <c r="F54" s="3">
-        <v>42900</v>
-      </c>
-      <c r="G54" s="3">
-        <v>41900</v>
-      </c>
       <c r="H54" s="3">
-        <v>40800</v>
+        <v>44600</v>
       </c>
       <c r="I54" s="3">
+        <v>43600</v>
+      </c>
+      <c r="J54" s="3">
+        <v>42300</v>
+      </c>
+      <c r="K54" s="3">
         <v>40100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>37500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>36700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>35900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>35100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>19600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>18700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>17900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>16800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>15800</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +3118,10 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,58 +3140,66 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>700</v>
+      </c>
+      <c r="F57" s="3">
         <v>1300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1100</v>
-      </c>
-      <c r="G57" s="3">
-        <v>700</v>
-      </c>
-      <c r="H57" s="3">
-        <v>600</v>
       </c>
       <c r="I57" s="3">
         <v>700</v>
       </c>
       <c r="J57" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K57" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L57" s="3">
         <v>500</v>
       </c>
       <c r="M57" s="3">
+        <v>600</v>
+      </c>
+      <c r="N57" s="3">
+        <v>500</v>
+      </c>
+      <c r="O57" s="3">
         <v>400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2942,10 +3210,10 @@
         <v>2600</v>
       </c>
       <c r="F58" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="G58" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="H58" s="3">
         <v>2700</v>
@@ -2957,19 +3225,19 @@
         <v>2700</v>
       </c>
       <c r="K58" s="3">
-        <v>1600</v>
+        <v>2700</v>
       </c>
       <c r="L58" s="3">
-        <v>1600</v>
+        <v>2700</v>
       </c>
       <c r="M58" s="3">
         <v>1600</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>8</v>
+      <c r="N58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="O58" s="3">
+        <v>1600</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>8</v>
@@ -2980,147 +3248,165 @@
       <c r="R58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>7800</v>
+      </c>
+      <c r="F59" s="3">
         <v>5800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>6100</v>
       </c>
-      <c r="F59" s="3">
-        <v>4000</v>
-      </c>
-      <c r="G59" s="3">
-        <v>3800</v>
-      </c>
       <c r="H59" s="3">
-        <v>3200</v>
+        <v>5900</v>
       </c>
       <c r="I59" s="3">
+        <v>5400</v>
+      </c>
+      <c r="J59" s="3">
+        <v>4500</v>
+      </c>
+      <c r="K59" s="3">
         <v>3500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>2600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>2200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>2000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>100</v>
-      </c>
-      <c r="P59" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>400</v>
       </c>
       <c r="R59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>400</v>
+      </c>
+      <c r="T59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>11200</v>
+      </c>
+      <c r="F60" s="3">
         <v>9700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>9500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
+        <v>9700</v>
+      </c>
+      <c r="I60" s="3">
+        <v>8800</v>
+      </c>
+      <c r="J60" s="3">
         <v>7800</v>
       </c>
-      <c r="G60" s="3">
-        <v>7200</v>
-      </c>
-      <c r="H60" s="3">
-        <v>6500</v>
-      </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>7000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>5800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>4800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>4300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>4100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E61" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F61" s="3">
         <v>3700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>4100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>4500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>4900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>5300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>5700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>6100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>7600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>8000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>8400</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3130,46 +3416,52 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>700</v>
+      </c>
+      <c r="E62" s="3">
+        <v>800</v>
+      </c>
+      <c r="F62" s="3">
         <v>900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>1100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>1200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>400</v>
-      </c>
-      <c r="J62" s="3">
-        <v>300</v>
-      </c>
-      <c r="K62" s="3">
-        <v>300</v>
       </c>
       <c r="L62" s="3">
         <v>300</v>
       </c>
       <c r="M62" s="3">
+        <v>300</v>
+      </c>
+      <c r="N62" s="3">
+        <v>300</v>
+      </c>
+      <c r="O62" s="3">
         <v>100</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>8</v>
@@ -3180,8 +3472,14 @@
       <c r="R62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3528,14 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3584,14 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3640,70 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>15300</v>
+      </c>
+      <c r="F66" s="3">
         <v>14300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>14500</v>
       </c>
-      <c r="F66" s="3">
-        <v>13400</v>
-      </c>
-      <c r="G66" s="3">
-        <v>13300</v>
-      </c>
       <c r="H66" s="3">
+        <v>15200</v>
+      </c>
+      <c r="I66" s="3">
+        <v>14900</v>
+      </c>
+      <c r="J66" s="3">
+        <v>14300</v>
+      </c>
+      <c r="K66" s="3">
         <v>13000</v>
       </c>
-      <c r="I66" s="3">
-        <v>13000</v>
-      </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>12100</v>
-      </c>
-      <c r="K66" s="3">
-        <v>12600</v>
-      </c>
-      <c r="L66" s="3">
-        <v>12600</v>
       </c>
       <c r="M66" s="3">
         <v>12600</v>
       </c>
       <c r="N66" s="3">
+        <v>12600</v>
+      </c>
+      <c r="O66" s="3">
+        <v>12600</v>
+      </c>
+      <c r="P66" s="3">
         <v>600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3722,10 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3774,14 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3830,14 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3886,14 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3942,70 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-4100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-5200</v>
       </c>
-      <c r="F72" s="3">
-        <v>-5400</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-6200</v>
-      </c>
       <c r="H72" s="3">
-        <v>-7100</v>
+        <v>-5500</v>
       </c>
       <c r="I72" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="K72" s="3">
         <v>-8000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-9700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-11000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-11900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-12400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-7800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-9000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-9700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-9200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-9900</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +4054,14 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +4110,14 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +4166,70 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>31600</v>
+      </c>
+      <c r="F76" s="3">
         <v>31300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>30100</v>
       </c>
-      <c r="F76" s="3">
-        <v>29500</v>
-      </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
+        <v>29400</v>
+      </c>
+      <c r="I76" s="3">
         <v>28700</v>
       </c>
-      <c r="H76" s="3">
-        <v>27800</v>
-      </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
+        <v>28100</v>
+      </c>
+      <c r="K76" s="3">
         <v>27000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>25400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>24100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>23300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>22400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>19000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>17800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>17200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>15900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>15200</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4278,131 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>300</v>
+      </c>
+      <c r="F81" s="3">
         <v>1100</v>
       </c>
-      <c r="E81" s="3">
-        <v>-400</v>
-      </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
+        <v>300</v>
+      </c>
+      <c r="H81" s="3">
+        <v>600</v>
+      </c>
+      <c r="I81" s="3">
+        <v>700</v>
+      </c>
+      <c r="J81" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K81" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L81" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M81" s="3">
         <v>800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="N81" s="3">
+        <v>500</v>
+      </c>
+      <c r="O81" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="P81" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="S81" s="3">
+        <v>700</v>
+      </c>
+      <c r="T81" s="3">
         <v>800</v>
       </c>
-      <c r="H81" s="3">
-        <v>1200</v>
-      </c>
-      <c r="I81" s="3">
-        <v>1700</v>
-      </c>
-      <c r="J81" s="3">
-        <v>1300</v>
-      </c>
-      <c r="K81" s="3">
-        <v>800</v>
-      </c>
-      <c r="L81" s="3">
-        <v>500</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-4600</v>
-      </c>
-      <c r="N81" s="3">
-        <v>1200</v>
-      </c>
-      <c r="O81" s="3">
-        <v>1000</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-800</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>700</v>
-      </c>
-      <c r="R81" s="3">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,19 +4421,21 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>400</v>
+      </c>
+      <c r="E83" s="3">
         <v>500</v>
       </c>
-      <c r="E83" s="3">
-        <v>700</v>
-      </c>
       <c r="F83" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="G83" s="3">
         <v>700</v>
@@ -4052,17 +4450,17 @@
         <v>700</v>
       </c>
       <c r="K83" s="3">
+        <v>700</v>
+      </c>
+      <c r="L83" s="3">
+        <v>700</v>
+      </c>
+      <c r="M83" s="3">
         <v>800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>800</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
       <c r="O83" s="3">
         <v>0</v>
       </c>
@@ -4075,8 +4473,14 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4529,14 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4585,14 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4641,14 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4697,14 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,22 +4753,28 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F89" s="3">
         <v>1800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>1300</v>
-      </c>
-      <c r="F89" s="3">
-        <v>2000</v>
-      </c>
-      <c r="G89" s="3">
-        <v>2300</v>
       </c>
       <c r="H89" s="3">
         <v>2000</v>
@@ -4349,34 +4783,40 @@
         <v>2300</v>
       </c>
       <c r="J89" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K89" s="3">
+        <v>2300</v>
+      </c>
+      <c r="L89" s="3">
         <v>1700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>2200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>1800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>1000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>1300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>1100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4835,66 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-200</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-100</v>
       </c>
       <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3" t="s">
+      <c r="K91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M91" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>8</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4943,14 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4999,70 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-200</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-100</v>
       </c>
       <c r="J94" s="3">
         <v>-100</v>
       </c>
       <c r="K94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-13100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +5081,10 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +5133,14 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +5189,14 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5245,14 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,13 +5301,19 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-400</v>
+        <v>-4400</v>
       </c>
       <c r="E100" s="3">
         <v>-400</v>
@@ -4836,26 +5328,26 @@
         <v>-400</v>
       </c>
       <c r="I100" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="J100" s="3">
         <v>-400</v>
       </c>
       <c r="K100" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="L100" s="3">
         <v>-400</v>
       </c>
       <c r="M100" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N100" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O100" s="3">
         <v>9900</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
@@ -4863,10 +5355,16 @@
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,54 +5413,66 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F102" s="3">
         <v>1300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>1500</v>
-      </c>
-      <c r="G102" s="3">
-        <v>1700</v>
-      </c>
-      <c r="H102" s="3">
-        <v>1400</v>
       </c>
       <c r="I102" s="3">
         <v>1700</v>
       </c>
       <c r="J102" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K102" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L102" s="3">
         <v>1200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>1600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>1400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-2200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>1200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>1100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>300</v>
       </c>
     </row>
